--- a/Analyzed/try6/data_2022.xlsx
+++ b/Analyzed/try6/data_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>CZcomb</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XZcomb</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,13 +552,13 @@
         <v>70.43788046702944</v>
       </c>
       <c r="N2">
-        <v>90.07600000000002</v>
+        <v>409.9760000000001</v>
       </c>
       <c r="O2">
-        <v>1249.65</v>
+        <v>-200.35</v>
       </c>
       <c r="P2">
-        <v>517.7465784</v>
+        <v>419.2333328528207</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -571,28 +576,31 @@
         <v>4</v>
       </c>
       <c r="V2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X2">
         <v>3</v>
       </c>
       <c r="Y2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z2">
         <v>5</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -638,13 +646,13 @@
         <v>69.56093635919234</v>
       </c>
       <c r="N3">
-        <v>111.356</v>
+        <v>428.4</v>
       </c>
       <c r="O3">
-        <v>1108.75</v>
+        <v>-141.25</v>
       </c>
       <c r="P3">
-        <v>512.4906936000001</v>
+        <v>412.9625474405262</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -665,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="W3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>2</v>
@@ -677,13 +685,16 @@
         <v>4</v>
       </c>
       <c r="AA3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB3">
         <v>4</v>
       </c>
       <c r="AC3">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="AD3">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -729,13 +740,13 @@
         <v>65.30102801153558</v>
       </c>
       <c r="N4">
-        <v>370.8880000000001</v>
+        <v>794.528</v>
       </c>
       <c r="O4">
-        <v>1349.99</v>
+        <v>-100.01</v>
       </c>
       <c r="P4">
-        <v>524.2343112</v>
+        <v>431.467266793077</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -756,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -768,13 +779,16 @@
         <v>1</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>1</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -820,13 +834,13 @@
         <v>65.21103189566298</v>
       </c>
       <c r="N5">
-        <v>234.136</v>
+        <v>576.128</v>
       </c>
       <c r="O5">
-        <v>1079.28</v>
+        <v>-120.72</v>
       </c>
       <c r="P5">
-        <v>563.3729711999999</v>
+        <v>479.1125689925968</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -847,13 +861,13 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>2</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -866,6 +880,9 @@
       </c>
       <c r="AC5">
         <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -911,13 +928,13 @@
         <v>58.80099636359719</v>
       </c>
       <c r="N6">
-        <v>232.54</v>
+        <v>535.4160000000001</v>
       </c>
       <c r="O6">
-        <v>1317.21</v>
+        <v>-132.79</v>
       </c>
       <c r="P6">
-        <v>484.8028632</v>
+        <v>371.8176991416892</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -944,19 +961,22 @@
         <v>4</v>
       </c>
       <c r="Y6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z6">
         <v>3</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>3</v>
       </c>
       <c r="AC6">
         <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1002,13 +1022,13 @@
         <v>68.52473308248945</v>
       </c>
       <c r="N7">
-        <v>199.696</v>
+        <v>458.248</v>
       </c>
       <c r="O7">
-        <v>1194.72</v>
+        <v>-155.28</v>
       </c>
       <c r="P7">
-        <v>496.1966904</v>
+        <v>397.4604772163437</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1029,10 +1049,10 @@
         <v>1</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1041,13 +1061,16 @@
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1093,13 +1116,13 @@
         <v>77.84979918983107</v>
       </c>
       <c r="N8">
-        <v>209.692</v>
+        <v>502.936</v>
       </c>
       <c r="O8">
-        <v>1303.89</v>
+        <v>-146.11</v>
       </c>
       <c r="P8">
-        <v>496.7000352</v>
+        <v>384.0446131451855</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -1120,13 +1143,13 @@
         <v>3</v>
       </c>
       <c r="W8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z8">
         <v>3</v>
@@ -1138,7 +1161,10 @@
         <v>3</v>
       </c>
       <c r="AC8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1184,13 +1210,13 @@
         <v>70.94514960225402</v>
       </c>
       <c r="N9">
-        <v>114.94</v>
+        <v>423.08</v>
       </c>
       <c r="O9">
-        <v>1281.84</v>
+        <v>-168.16</v>
       </c>
       <c r="P9">
-        <v>523.6248023999999</v>
+        <v>419.3145850999126</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -1208,10 +1234,10 @@
         <v>4</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>5</v>
@@ -1220,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>1</v>
@@ -1230,6 +1256,9 @@
       </c>
       <c r="AC9">
         <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1275,13 +1304,13 @@
         <v>73.62923203844343</v>
       </c>
       <c r="N10">
-        <v>93.85599999999999</v>
+        <v>376.6</v>
       </c>
       <c r="O10">
-        <v>1186.88</v>
+        <v>-163.12</v>
       </c>
       <c r="P10">
-        <v>498.850164</v>
+        <v>390.9929532805433</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -1299,13 +1328,13 @@
         <v>6</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1317,9 +1346,12 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
         <v>1</v>
       </c>
     </row>
@@ -1366,13 +1398,13 @@
         <v>78.95454752777741</v>
       </c>
       <c r="N11">
-        <v>109.312</v>
+        <v>448.448</v>
       </c>
       <c r="O11">
-        <v>1431.66</v>
+        <v>-218.34</v>
       </c>
       <c r="P11">
-        <v>443.746836</v>
+        <v>323.2790546493608</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -1390,10 +1422,10 @@
         <v>9</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1402,16 +1434,19 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
